--- a/8-3_設計/テーブル定義書.xlsx
+++ b/8-3_設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukis\OneDrive\デスクトップ\educure\Ryuto-Suzuki-educure-app\8-3_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92685EC3-7C65-4AD8-ACD0-467822B9A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC6273-7D0B-4B91-8164-C9D1842431AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="97">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -282,13 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inventory_transactions Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>transaction_code</t>
-  </si>
-  <si>
     <t>入出庫コード</t>
     <rPh sb="0" eb="3">
       <t>ニュウシュッコ</t>
@@ -356,16 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単一の取得</t>
-    <rPh sb="0" eb="2">
-      <t>タンイツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user Table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,6 +500,100 @@
     <t>注意</t>
     <rPh sb="0" eb="2">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderーProducts Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出庫ID</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュッコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品ID</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderーPictures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pictures.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付画像</t>
+    <rPh sb="0" eb="4">
+      <t>テンプガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出庫製品</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュッコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間テーブルで作成</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -582,15 +659,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -879,30 +953,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:N63"/>
+  <dimension ref="C2:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="27.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="26.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="27.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="26.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -971,7 +1045,9 @@
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1022,10 +1098,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1034,10 +1110,12 @@
       <c r="J6" s="2">
         <v>25</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
@@ -1047,19 +1125,19 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="2" t="b">
@@ -1074,10 +1152,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1095,10 +1173,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1111,8 +1189,8 @@
       <c r="N9" s="2"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="5" t="s">
-        <v>78</v>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
@@ -1182,7 +1260,9 @@
         <v>2</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1260,10 +1340,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1281,10 +1361,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1297,7 +1377,7 @@
       <c r="N17" s="2"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1368,12 +1448,14 @@
         <v>2</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>25</v>
@@ -1398,7 +1480,7 @@
         <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>25</v>
@@ -1423,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>25</v>
@@ -1448,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>40</v>
@@ -1469,7 +1551,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>40</v>
@@ -1513,10 +1595,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -1534,10 +1616,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -1550,7 +1632,7 @@
       <c r="N28" s="2"/>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1621,7 +1703,9 @@
         <v>2</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1674,10 +1758,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1695,10 +1779,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -1726,7 +1810,7 @@
       <c r="N36" s="2"/>
     </row>
     <row r="38" spans="3:14">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1821,7 +1905,7 @@
     </row>
     <row r="42" spans="3:14">
       <c r="C42" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>0</v>
@@ -1891,12 +1975,14 @@
         <v>2</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>40</v>
@@ -1907,7 +1993,7 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N44" s="2"/>
     </row>
@@ -1918,10 +2004,10 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>24</v>
@@ -1933,10 +2019,10 @@
         <v>9</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="3:14">
       <c r="D46" s="2">
@@ -1945,10 +2031,10 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>25</v>
@@ -1960,7 +2046,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="3:14">
@@ -1969,11 +2055,11 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>40</v>
@@ -1985,16 +2071,19 @@
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="3:14">
+      <c r="C48" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D48" s="2">
         <v>6</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>40</v>
@@ -2006,16 +2095,19 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="3:14">
+      <c r="C49" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D49" s="2">
         <v>7</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>40</v>
@@ -2027,16 +2119,19 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="3:14">
+      <c r="C50" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D50" s="2">
         <v>8</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
@@ -2048,24 +2143,27 @@
         <v>9</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="3:14">
+      <c r="C51" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D51" s="2">
         <v>9</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
@@ -2077,10 +2175,12 @@
         <v>9</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="52" spans="3:14">
       <c r="D52" s="2">
@@ -2089,10 +2189,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>24</v>
@@ -2103,7 +2203,9 @@
       <c r="K52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
@@ -2114,10 +2216,10 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
@@ -2125,11 +2227,15 @@
       <c r="J53" s="2">
         <v>32</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="3:14">
@@ -2165,10 +2271,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -2186,10 +2292,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -2202,8 +2308,8 @@
       <c r="N56" s="2"/>
     </row>
     <row r="58" spans="3:14">
-      <c r="C58" s="5" t="s">
-        <v>68</v>
+      <c r="C58" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>0</v>
@@ -2278,7 +2384,7 @@
         <v>30</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>25</v>
@@ -2300,10 +2406,10 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>25</v>
@@ -2319,13 +2425,15 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="3:14">
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>4</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -2343,10 +2451,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -2358,6 +2466,353 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
+    <row r="65" spans="3:14">
+      <c r="C65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14">
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="2">
+        <v>32</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="3:14">
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="2">
+        <v>32</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14">
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="2">
+        <v>32</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14">
+      <c r="D69" s="2">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="2">
+        <v>32</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="3:14">
+      <c r="D70" s="2">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="3:14">
+      <c r="D71" s="2">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="73" spans="3:14">
+      <c r="C73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14">
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="2">
+        <v>32</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="3:14">
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="2">
+        <v>31</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="3:14">
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="2">
+        <v>32</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="3:14">
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="3:14">
+      <c r="D78" s="2">
+        <v>5</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8-3_設計/テーブル定義書.xlsx
+++ b/8-3_設計/テーブル定義書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukis\OneDrive\デスクトップ\educure\Ryuto-Suzuki-educure-app\8-3_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CC6273-7D0B-4B91-8164-C9D1842431AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F9E431-12B0-4DAE-9AA2-1780086D7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル定義書" sheetId="1" r:id="rId1"/>
+    <sheet name="ER図用" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="156">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -504,10 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OrderーProducts Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>order Table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -545,10 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OrderーPictures</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pictures.id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,6 +587,227 @@
     <t>一般</t>
     <rPh sb="0" eb="2">
       <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Order-Pictures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order-Products Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>consignee_code</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>storage_area</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tracking_number</t>
+  </si>
+  <si>
+    <t>admin_note</t>
+  </si>
+  <si>
+    <t>warehouse_worker_note</t>
+  </si>
+  <si>
+    <t>quality_inspector_note</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>consignee_id → cousignee.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warehouse_worker → user.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quality_inspector → user.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temporary_holding_area_id → storage_area.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_products</t>
+  </si>
+  <si>
+    <t>product_id → products.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_id → orders.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_pictures</t>
+  </si>
+  <si>
+    <t>picture_id → pictures.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pictures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cousignees</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類名</t>
+    <rPh sb="0" eb="3">
+      <t>ブンルイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Product-categories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categories Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_categories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id → categories.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※完成図はFigmaにあります。</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,7 +816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +829,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -655,11 +876,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +929,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,16 +1231,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:N78"/>
+  <dimension ref="C2:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="27.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="4"/>
     <col min="7" max="7" width="26.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="4" bestFit="1" customWidth="1"/>
@@ -976,7 +1254,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1114,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1189,7 +1467,7 @@
       <c r="N9" s="2"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1377,8 +1655,8 @@
       <c r="N17" s="2"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="4" t="s">
-        <v>35</v>
+      <c r="C19" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>0</v>
@@ -1438,9 +1716,7 @@
         <v>9</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14">
@@ -1452,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>25</v>
@@ -1477,21 +1753,23 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
@@ -1502,20 +1780,16 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="2">
-        <v>255</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1527,13 +1801,13 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1541,193 +1815,195 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="3:14">
-      <c r="D25" s="2">
+    <row r="26" spans="3:14">
+      <c r="C26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="D26" s="2">
+      <c r="K26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="3:14">
       <c r="D27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J27" s="2">
+        <v>32</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="3:14">
       <c r="D28" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J28" s="2">
+        <v>255</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
+    <row r="29" spans="3:14">
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="2">
+        <v>255</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="2">
+        <v>255</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="3:14">
       <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="2">
-        <v>32</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="3:14">
       <c r="D32" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="2">
-        <v>255</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="3:14">
       <c r="D33" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1754,7 +2030,7 @@
     </row>
     <row r="34" spans="3:14">
       <c r="D34" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1775,7 +2051,7 @@
     </row>
     <row r="35" spans="3:14">
       <c r="D35" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1794,376 +2070,354 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="3:14">
-      <c r="D36" s="2">
+    <row r="37" spans="3:14">
+      <c r="C37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="K37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="3:14">
-      <c r="C38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="2">
+        <v>32</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="3:14">
       <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" s="2">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="3:14">
       <c r="D40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J40" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
+      <c r="L40" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
+    <row r="41" spans="3:14">
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
     <row r="42" spans="3:14">
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="D42" s="2">
         <v>5</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="3:14">
       <c r="D43" s="2">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="C45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="2">
-        <v>32</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="3:14">
-      <c r="D44" s="2">
+      <c r="F45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="3:14">
-      <c r="D45" s="2">
+      <c r="G45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="2">
-        <v>32</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2" t="s">
-        <v>35</v>
+      <c r="H45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="3:14">
       <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J46" s="2">
-        <v>255</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="M46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="3:14">
       <c r="D47" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3" t="s">
-        <v>69</v>
+      <c r="G47" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J47" s="2">
+        <v>32</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="3:14">
-      <c r="C48" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D48" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J48" s="2">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="3:14">
-      <c r="C49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="2">
+    <row r="50" spans="3:14">
+      <c r="C50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="3:14">
-      <c r="C50" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="M50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="2">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2" t="s">
-        <v>58</v>
+      <c r="N50" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="3:14">
-      <c r="C51" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D51" s="2">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>24</v>
@@ -2174,52 +2428,50 @@
       <c r="K51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="3:14">
       <c r="D52" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G52" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="2">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="3:14">
       <c r="D53" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>24</v>
@@ -2230,55 +2482,51 @@
       <c r="K53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="3:14">
       <c r="D54" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="2" t="b">
-        <v>1</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="55" spans="3:14">
       <c r="D55" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
+      <c r="G55" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2287,19 +2535,22 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="3:14">
+      <c r="C56" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="D56" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -2307,57 +2558,76 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
     </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
     <row r="58" spans="3:14">
-      <c r="C58" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M58" s="1" t="s">
+      <c r="C58" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="2">
         <v>8</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>43</v>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="2">
+        <v>32</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="3:14">
+      <c r="C59" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>24</v>
@@ -2368,94 +2638,108 @@
       <c r="K59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="3:14">
       <c r="D60" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" s="2">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="3:14">
       <c r="D61" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" s="2">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="3:14">
       <c r="D62" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="3:14">
       <c r="D63" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>26</v>
@@ -2466,86 +2750,78 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="65" spans="3:14">
-      <c r="C65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="1" t="s">
+    <row r="64" spans="3:14">
+      <c r="D64" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="66" spans="3:14">
+      <c r="C66" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="3:14">
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="2">
-        <v>32</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N66" s="2"/>
     </row>
     <row r="67" spans="3:14">
       <c r="D67" s="2">
-        <v>2</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>24</v>
@@ -2557,57 +2833,53 @@
         <v>9</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="M67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="3:14">
       <c r="D68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J68" s="2">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" spans="3:14">
       <c r="D69" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J69" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>9</v>
@@ -2618,14 +2890,16 @@
     </row>
     <row r="70" spans="3:14">
       <c r="D70" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I70" s="2" t="s">
         <v>26</v>
       </c>
@@ -2637,14 +2911,16 @@
     </row>
     <row r="71" spans="3:14">
       <c r="D71" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I71" s="2" t="s">
         <v>26</v>
       </c>
@@ -2655,8 +2931,8 @@
       <c r="N71" s="2"/>
     </row>
     <row r="73" spans="3:14">
-      <c r="C73" s="4" t="s">
-        <v>89</v>
+      <c r="C73" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
@@ -2730,23 +3006,25 @@
         <v>9</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J75" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="76" spans="3:14">
       <c r="D76" s="2">
@@ -2757,10 +3035,10 @@
         <v>9</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>24</v>
@@ -2773,7 +3051,9 @@
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="3:14">
       <c r="D77" s="2">
@@ -2782,14 +3062,20 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J77" s="2">
+        <v>32</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -2801,7 +3087,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
@@ -2813,8 +3099,1154 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
+    <row r="79" spans="3:14">
+      <c r="D79" s="2">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="81" spans="3:14">
+      <c r="C81" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14">
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="2">
+        <v>32</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="2">
+        <v>31</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="2">
+        <v>32</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="3:14">
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="3:14">
+      <c r="D86" s="2">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="88" spans="3:14">
+      <c r="C88" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14">
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="2">
+        <v>32</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="3:14">
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="2">
+        <v>32</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14">
+      <c r="D91" s="2">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="2">
+        <v>32</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="D92" s="2">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="3:14">
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE62419A-4F71-493C-BD1A-F42779894F01}">
+  <dimension ref="C2:I107"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="5"/>
+      <c r="D26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="5"/>
+      <c r="D27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="5"/>
+      <c r="D28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="C88" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="C95" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="C96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5">
+      <c r="C102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="C105" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C67:E67"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/8-3_設計/テーブル定義書.xlsx
+++ b/8-3_設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukis\OneDrive\デスクトップ\educure\Ryuto-Suzuki-educure-app\8-3_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F9E431-12B0-4DAE-9AA2-1780086D7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F696464-32F8-4E1C-BE05-898ED7A852D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,19 @@
     <sheet name="テーブル定義書" sheetId="1" r:id="rId1"/>
     <sheet name="ER図用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -917,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,7 +941,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,15 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,14 +1241,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W113" sqref="W113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="27.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="4"/>
     <col min="7" max="7" width="26.25" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="4" bestFit="1" customWidth="1"/>
@@ -1254,7 +1262,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1467,7 +1475,7 @@
       <c r="N9" s="2"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1655,7 +1663,7 @@
       <c r="N17" s="2"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1816,7 +1824,7 @@
       <c r="N24" s="2"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2071,7 +2079,7 @@
       <c r="N35" s="2"/>
     </row>
     <row r="37" spans="3:14">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2249,7 +2257,7 @@
       <c r="N43" s="2"/>
     </row>
     <row r="45" spans="3:14">
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2368,7 +2376,7 @@
       <c r="N48" s="2"/>
     </row>
     <row r="50" spans="3:14">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2535,7 +2543,7 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="3:14">
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="2">
@@ -2559,7 +2567,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="3:14">
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D57" s="2">
@@ -2583,7 +2591,7 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="3:14">
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D58" s="2">
@@ -2615,7 +2623,7 @@
       </c>
     </row>
     <row r="59" spans="3:14">
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D59" s="2">
@@ -2772,7 +2780,7 @@
       <c r="N64" s="2"/>
     </row>
     <row r="66" spans="3:14">
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2931,7 +2939,7 @@
       <c r="N71" s="2"/>
     </row>
     <row r="73" spans="3:14">
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -3119,7 +3127,7 @@
       <c r="N79" s="2"/>
     </row>
     <row r="81" spans="3:14">
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3278,7 +3286,7 @@
       <c r="N86" s="2"/>
     </row>
     <row r="88" spans="3:14">
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -3467,11 +3475,11 @@
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="5" t="s">
@@ -3541,11 +3549,11 @@
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="5" t="s">
@@ -3609,20 +3617,20 @@
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3630,46 +3638,46 @@
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="5"/>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="5"/>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="5"/>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="5" t="s">
@@ -3757,11 +3765,11 @@
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="5" t="s">
@@ -3813,11 +3821,11 @@
       </c>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="5" t="s">
@@ -3851,11 +3859,11 @@
       </c>
     </row>
     <row r="58" spans="3:5">
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="3:5">
       <c r="C59" s="5" t="s">
@@ -3905,11 +3913,11 @@
       </c>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="3:5">
       <c r="C68" s="5" t="s">
@@ -3951,7 +3959,7 @@
       <c r="D71" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3962,7 +3970,7 @@
       <c r="D72" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3973,7 +3981,7 @@
       <c r="D73" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3991,7 +3999,7 @@
       <c r="D75" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4000,7 +4008,7 @@
       <c r="D76" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4009,7 +4017,7 @@
       <c r="D77" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4050,11 +4058,11 @@
       </c>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="9"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="3:5">
       <c r="C86" s="5" t="s">
@@ -4117,11 +4125,11 @@
       </c>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="9"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="3:5">
       <c r="C96" s="5" t="s">
@@ -4175,11 +4183,11 @@
       </c>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="3:5">
       <c r="C103" s="5" t="s">
@@ -4234,16 +4242,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C58:E58"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C52:E52"/>
     <mergeCell ref="C67:E67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
